--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V281"/>
+  <dimension ref="A1:V282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.71</v>
+        <v>1.91</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:52</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:50</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:52</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:50</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,63 +7205,63 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.67</v>
+        <v>1.84</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.83</v>
+        <v>1.77</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.98</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.12</v>
+        <v>3.39</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3</v>
+        <v>4.98</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.79</v>
+        <v>5.65</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:58</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,63 +7389,63 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>1.84</v>
+        <v>2.67</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.77</v>
+        <v>2.83</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.32</v>
+        <v>2.98</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.39</v>
+        <v>3.12</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.98</v>
+        <v>3</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.65</v>
+        <v>2.79</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:20</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.36</v>
+        <v>3.22</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
       <c r="J86" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:20</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
         </is>
       </c>
     </row>
@@ -9589,30 +9589,30 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9620,15 +9620,15 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -9636,15 +9636,15 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
         </is>
       </c>
     </row>
@@ -9773,30 +9773,30 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
         <v>1</v>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Vitoria</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
-        <v>2</v>
-      </c>
       <c r="J102" t="n">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.46</v>
+        <v>2.81</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,15 +9804,15 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.18</v>
+        <v>2.99</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -9820,15 +9820,15 @@
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.08</v>
+        <v>3.22</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:51</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.03</v>
+        <v>3.64</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.02</v>
+        <v>6.5</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.5</v>
+        <v>6.55</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:51</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.64</v>
+        <v>3.03</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>6.5</v>
+        <v>3.02</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>6.55</v>
+        <v>3.5</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,14 +10977,14 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-sport-recife/t0iygSdC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-mirassol/f3HA7RB5/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>2.93</v>
+        <v>3.04</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-mirassol/f3HA7RB5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-sport-recife/t0iygSdC/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,63 +13553,63 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>4.39</v>
+        <v>3.12</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.75</v>
+        <v>4.15</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,63 +13645,63 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>2.97</v>
+        <v>3.19</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>3.12</v>
+        <v>4.39</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,71 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2.64</v>
+        <v>1.99</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.68</v>
+        <v>1.95</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:27</t>
+          <t>15/07/2023 02:21</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:27</t>
+          <t>15/07/2023 02:20</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>2.87</v>
+        <v>4.35</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.07</v>
+        <v>4.74</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:29</t>
+          <t>15/07/2023 02:21</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-sport-recife/KlNQMIY6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ituano/KnWlRXPh/</t>
         </is>
       </c>
     </row>
@@ -15477,71 +15477,71 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>1.99</v>
+        <v>2.64</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:21</t>
+          <t>15/07/2023 02:27</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:20</t>
+          <t>15/07/2023 02:27</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>4.35</v>
+        <v>2.87</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>4.74</v>
+        <v>3.07</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:21</t>
+          <t>15/07/2023 02:29</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ituano/KnWlRXPh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-sport-recife/KlNQMIY6/</t>
         </is>
       </c>
     </row>
@@ -15661,71 +15661,71 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>1</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
       <c r="J166" t="n">
-        <v>3.53</v>
+        <v>2.01</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>2.21</v>
+        <v>4.29</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2.05</v>
+        <v>3.83</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
       <c r="J167" t="n">
-        <v>2.01</v>
+        <v>3.53</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>4.29</v>
+        <v>2.21</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>3.83</v>
+        <v>2.05</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
         </is>
       </c>
     </row>
@@ -16673,30 +16673,30 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G177" t="n">
+        <v>2</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
       <c r="J177" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -16704,31 +16704,31 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.08</v>
+        <v>3.82</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.42</v>
+        <v>4.71</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
         <v>1</v>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Vitoria</t>
-        </is>
-      </c>
-      <c r="I178" t="n">
-        <v>2</v>
-      </c>
       <c r="J178" t="n">
-        <v>1.69</v>
+        <v>2.6</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.74</v>
+        <v>2.6</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.51</v>
+        <v>2.85</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P178" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q178" t="inlineStr">
-        <is>
-          <t>20/07/2023 01:54</t>
-        </is>
-      </c>
-      <c r="R178" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>16/07/2023 23:12</t>
-        </is>
-      </c>
-      <c r="T178" t="n">
-        <v>5.96</v>
-      </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16857,71 +16857,71 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
         <v>2</v>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Sampaio Correa</t>
-        </is>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
       <c r="J179" t="n">
-        <v>2.2</v>
+        <v>1.69</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.05</v>
+        <v>3.51</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.82</v>
+        <v>5.8</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>4.71</v>
+        <v>5.96</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G203" t="n">
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
         <v>1</v>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
       <c r="J203" t="n">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>3.68</v>
+        <v>5.96</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T203" t="n">
-        <v>4.31</v>
+        <v>6.01</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
         </is>
       </c>
     </row>
@@ -19157,71 +19157,71 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>5.96</v>
+        <v>3.68</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="T204" t="n">
-        <v>6.01</v>
+        <v>4.31</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G205" t="n">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Sport Recife</t>
-        </is>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
       <c r="J205" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.31</v>
+        <v>2.46</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.9</v>
+        <v>3.48</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
         <v>1</v>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
       <c r="J206" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.46</v>
+        <v>2.31</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>3.48</v>
+        <v>3.9</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -26306,6 +26306,98 @@
       <c r="V281" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-ceara/0ddRbR3E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45189.10416666666</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="G282" t="n">
+        <v>2</v>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>20/09/2023 02:23</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P282" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>20/09/2023 02:08</t>
+        </is>
+      </c>
+      <c r="R282" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T282" t="n">
+        <v>3</v>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>20/09/2023 02:23</t>
+        </is>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-vila-nova-fc/UXNX5rBs/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V282"/>
+  <dimension ref="A1:V285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:49</t>
+          <t>14/05/2023 22:54</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:54</t>
+          <t>14/05/2023 22:49</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.08</v>
+        <v>4.39</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:52</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:50</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.71</v>
+        <v>1.91</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:52</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:50</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,63 +7205,63 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>1.84</v>
+        <v>2.67</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.77</v>
+        <v>2.83</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.32</v>
+        <v>2.98</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.39</v>
+        <v>3.12</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.98</v>
+        <v>3</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.65</v>
+        <v>2.79</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,63 +7389,63 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.67</v>
+        <v>1.84</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.83</v>
+        <v>1.77</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2.98</v>
+        <v>3.32</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.12</v>
+        <v>3.39</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3</v>
+        <v>4.98</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.79</v>
+        <v>5.65</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:58</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:20</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:20</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.36</v>
+        <v>3.22</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,14 +10977,14 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>2.93</v>
+        <v>3.04</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-mirassol/f3HA7RB5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-sport-recife/t0iygSdC/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-sport-recife/t0iygSdC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-mirassol/f3HA7RB5/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:56</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.04</v>
+        <v>3.9</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2.99</v>
+        <v>3.58</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.67</v>
+        <v>4.62</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.59</v>
+        <v>5.19</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.78</v>
+        <v>3.2</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:56</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.9</v>
+        <v>3.04</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.58</v>
+        <v>2.99</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>4.62</v>
+        <v>2.67</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.84</v>
+        <v>2.17</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.21</v>
+        <v>3.85</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.85</v>
+        <v>4.18</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.17</v>
+        <v>2.84</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.85</v>
+        <v>3.21</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>4.18</v>
+        <v>2.85</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,71 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>1.99</v>
+        <v>2.64</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:21</t>
+          <t>15/07/2023 02:27</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:20</t>
+          <t>15/07/2023 02:27</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>4.35</v>
+        <v>2.87</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>4.74</v>
+        <v>3.07</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:21</t>
+          <t>15/07/2023 02:29</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ituano/KnWlRXPh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-sport-recife/KlNQMIY6/</t>
         </is>
       </c>
     </row>
@@ -15477,71 +15477,71 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.64</v>
+        <v>1.99</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.68</v>
+        <v>1.95</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:27</t>
+          <t>15/07/2023 02:21</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:27</t>
+          <t>15/07/2023 02:20</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>2.87</v>
+        <v>4.35</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.07</v>
+        <v>4.74</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:29</t>
+          <t>15/07/2023 02:21</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-sport-recife/KlNQMIY6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ituano/KnWlRXPh/</t>
         </is>
       </c>
     </row>
@@ -16397,30 +16397,30 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.13</v>
+        <v>4.06</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.12</v>
+        <v>4.02</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:57</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.31</v>
+        <v>7.52</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.67</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:54</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
         </is>
       </c>
     </row>
@@ -16489,30 +16489,30 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -16520,40 +16520,40 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>4.06</v>
+        <v>3.13</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:57</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>7.52</v>
+        <v>3.31</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>8.199999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:54</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
         </is>
       </c>
     </row>
@@ -16581,42 +16581,42 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>1</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
       <c r="J176" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P176" t="n">
@@ -16624,28 +16624,28 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:26</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.05</v>
+        <v>2.69</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.82</v>
+        <v>2.95</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>4.71</v>
+        <v>3.29</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>2.6</v>
+        <v>1.69</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>2.85</v>
+        <v>3.51</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.81</v>
+        <v>3.42</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.08</v>
+        <v>5.8</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3.42</v>
+        <v>5.96</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -16857,71 +16857,71 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.51</v>
+        <v>3.05</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 01:54</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>5.8</v>
+        <v>3.82</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>5.96</v>
+        <v>4.71</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -17133,71 +17133,71 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I182" t="n">
         <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>1.49</v>
+        <v>2.7</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1.47</v>
+        <v>2.57</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>22/07/2023 21:49</t>
+          <t>22/07/2023 21:58</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>4.17</v>
+        <v>2.87</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3.98</v>
+        <v>2.92</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>22/07/2023 21:53</t>
+          <t>22/07/2023 21:58</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>8</v>
+        <v>2.94</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="T182" t="n">
-        <v>9.210000000000001</v>
+        <v>3.33</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>22/07/2023 21:53</t>
+          <t>22/07/2023 21:58</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-abc/Gf3pZnOT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-novorizontino/I3kCU6Wp/</t>
         </is>
       </c>
     </row>
@@ -17225,71 +17225,71 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>2.7</v>
+        <v>1.49</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>2.57</v>
+        <v>1.47</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>22/07/2023 21:58</t>
+          <t>22/07/2023 21:49</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>2.87</v>
+        <v>4.17</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2.92</v>
+        <v>3.98</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>22/07/2023 21:58</t>
+          <t>22/07/2023 21:53</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>2.94</v>
+        <v>8</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>3.33</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>22/07/2023 21:58</t>
+          <t>22/07/2023 21:53</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-novorizontino/I3kCU6Wp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-abc/Gf3pZnOT/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:57</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>4.35</v>
+        <v>3.78</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>4.02</v>
+        <v>3.74</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:57</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>5.96</v>
+        <v>3.68</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="T203" t="n">
-        <v>6.01</v>
+        <v>4.31</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
         </is>
       </c>
     </row>
@@ -19157,71 +19157,71 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G204" t="n">
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
         <v>1</v>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
       <c r="J204" t="n">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>3.68</v>
+        <v>5.96</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T204" t="n">
-        <v>4.31</v>
+        <v>6.01</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
         </is>
       </c>
     </row>
@@ -19249,71 +19249,71 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2.38</v>
+        <v>1.6</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.46</v>
+        <v>1.47</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>2.96</v>
+        <v>3.78</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2.94</v>
+        <v>4.23</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.51</v>
+        <v>5.67</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.48</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
-        <v>1.6</v>
+        <v>2.51</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.47</v>
+        <v>2.59</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.78</v>
+        <v>2.96</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>4.23</v>
+        <v>2.9</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>5.67</v>
+        <v>3.26</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>8.199999999999999</v>
+        <v>3.31</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19525,22 +19525,22 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.51</v>
+        <v>2.2</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -19548,15 +19548,15 @@
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.59</v>
+        <v>2.1</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -19564,15 +19564,15 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:24</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.26</v>
+        <v>3.79</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
@@ -19580,16 +19580,16 @@
         </is>
       </c>
       <c r="T208" t="n">
-        <v>3.31</v>
+        <v>4.11</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
+          <t>03/08/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>30/07/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
           <t>03/08/2023 02:28</t>
         </is>
       </c>
-      <c r="N209" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O209" t="inlineStr">
-        <is>
-          <t>29/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P209" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="Q209" t="inlineStr">
-        <is>
-          <t>03/08/2023 02:24</t>
-        </is>
-      </c>
       <c r="R209" t="n">
-        <v>3.79</v>
+        <v>3.51</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>4.11</v>
+        <v>3.48</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -20905,71 +20905,71 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:57</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>3.12</v>
+        <v>3.05</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:55</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>3.63</v>
+        <v>3.96</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="T223" t="n">
-        <v>3.44</v>
+        <v>4.5</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:57</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-crb/Yo6COY4m/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ponte-preta/zBQyVzSJ/</t>
         </is>
       </c>
     </row>
@@ -20997,71 +20997,71 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>2.08</v>
+        <v>2.41</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:57</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:55</t>
         </is>
       </c>
       <c r="R224" t="n">
-        <v>3.96</v>
+        <v>3.63</v>
       </c>
       <c r="S224" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="T224" t="n">
-        <v>4.5</v>
+        <v>3.44</v>
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:57</t>
         </is>
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ponte-preta/zBQyVzSJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-crb/Yo6COY4m/</t>
         </is>
       </c>
     </row>
@@ -22009,22 +22009,22 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="L235" t="n">
-        <v>2.94</v>
+        <v>2.79</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
@@ -22040,31 +22040,31 @@
         </is>
       </c>
       <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>15/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
         <v>2.95</v>
       </c>
-      <c r="O235" t="inlineStr">
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>19/08/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S235" t="inlineStr">
         <is>
           <t>15/08/2023 00:12</t>
         </is>
       </c>
-      <c r="P235" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q235" t="inlineStr">
-        <is>
-          <t>19/08/2023 21:57</t>
-        </is>
-      </c>
-      <c r="R235" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S235" t="inlineStr">
-        <is>
-          <t>15/08/2023 00:12</t>
-        </is>
-      </c>
       <c r="T235" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="U235" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
       </c>
       <c r="V235" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-crb/jBI6Y9YB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-criciuma/jmzKsEBP/</t>
         </is>
       </c>
     </row>
@@ -22101,22 +22101,22 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="L236" t="n">
-        <v>2.79</v>
+        <v>2.94</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         </is>
       </c>
       <c r="N236" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -22140,32 +22140,32 @@
         </is>
       </c>
       <c r="P236" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>19/08/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
         <v>2.95</v>
       </c>
-      <c r="Q236" t="inlineStr">
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>15/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U236" t="inlineStr">
         <is>
           <t>19/08/2023 21:51</t>
         </is>
       </c>
-      <c r="R236" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="S236" t="inlineStr">
-        <is>
-          <t>15/08/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T236" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U236" t="inlineStr">
-        <is>
-          <t>19/08/2023 21:51</t>
-        </is>
-      </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-criciuma/jmzKsEBP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-crb/jBI6Y9YB/</t>
         </is>
       </c>
     </row>
@@ -26398,6 +26398,282 @@
       <c r="V282" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-vila-nova-fc/UXNX5rBs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45192</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="G283" t="n">
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>3</v>
+      </c>
+      <c r="J283" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>22/09/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P283" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>22/09/2023 23:56</t>
+        </is>
+      </c>
+      <c r="R283" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>16/09/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T283" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>22/09/2023 23:59</t>
+        </is>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-mirassol/bivEkNQ0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45192.10416666666</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Atletico GO</t>
+        </is>
+      </c>
+      <c r="G284" t="n">
+        <v>3</v>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>1</v>
+      </c>
+      <c r="J284" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:54</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P284" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:50</t>
+        </is>
+      </c>
+      <c r="R284" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>16/09/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T284" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>23/09/2023 01:54</t>
+        </is>
+      </c>
+      <c r="V284" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-criciuma/tGTIlst7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45192.10416666666</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="G285" t="n">
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>2</v>
+      </c>
+      <c r="J285" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>19/09/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:28</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>19/09/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P285" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:28</t>
+        </is>
+      </c>
+      <c r="R285" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>19/09/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T285" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:28</t>
+        </is>
+      </c>
+      <c r="V285" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-vitoria/8ML4CpYD/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V285"/>
+  <dimension ref="A1:V289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:59</t>
+          <t>07/06/2023 23:45</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.14</v>
+        <v>3.54</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:59</t>
+          <t>07/06/2023 23:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>7.82</v>
+        <v>5.79</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>9.82</v>
+        <v>5.49</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:59</t>
+          <t>07/06/2023 23:42</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-avai/YT0Gcjrs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-guarani/rksd2WZP/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
         <v>1</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
       <c r="J107" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>07/06/2023 23:45</t>
+          <t>07/06/2023 23:59</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.54</v>
+        <v>4.14</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>07/06/2023 23:58</t>
+          <t>07/06/2023 23:59</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>5.79</v>
+        <v>7.82</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>5.49</v>
+        <v>9.82</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>07/06/2023 23:42</t>
+          <t>07/06/2023 23:59</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-guarani/rksd2WZP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-avai/YT0Gcjrs/</t>
         </is>
       </c>
     </row>
@@ -24033,7 +24033,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -24041,63 +24041,63 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>2.84</v>
+        <v>3.17</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>2.78</v>
+        <v>3.28</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:55</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>3.16</v>
+        <v>4.02</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>3.61</v>
+        <v>4.45</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:51</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
         </is>
       </c>
     </row>
@@ -24125,7 +24125,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -24133,63 +24133,63 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>2.01</v>
+        <v>2.56</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>3.17</v>
+        <v>2.84</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:55</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>4.02</v>
+        <v>3.16</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>4.45</v>
+        <v>3.61</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:51</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
         </is>
       </c>
     </row>
@@ -26674,6 +26674,374 @@
       <c r="V285" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-vitoria/8ML4CpYD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45192.91666666666</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Chapecoense-SC</t>
+        </is>
+      </c>
+      <c r="G286" t="n">
+        <v>1</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>19/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>19/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P286" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:59</t>
+        </is>
+      </c>
+      <c r="R286" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>19/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T286" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:59</t>
+        </is>
+      </c>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45192.91666666666</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="G287" t="n">
+        <v>1</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:53</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P287" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:53</t>
+        </is>
+      </c>
+      <c r="R287" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T287" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>23/09/2023 21:53</t>
+        </is>
+      </c>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45192.95833333334</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="G288" t="n">
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>23/09/2023 22:54</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P288" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>23/09/2023 22:54</t>
+        </is>
+      </c>
+      <c r="R288" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T288" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>23/09/2023 22:54</t>
+        </is>
+      </c>
+      <c r="V288" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-botafogo-sp/xbRu4Muf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>45193.07291666666</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="G289" t="n">
+        <v>4</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:35</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P289" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:44</t>
+        </is>
+      </c>
+      <c r="R289" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T289" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>24/09/2023 01:44</t>
+        </is>
+      </c>
+      <c r="V289" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-londrina/SOy6AO2Q/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V289"/>
+  <dimension ref="A1:V291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,19 +2597,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>2.2</v>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:51</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.54</v>
+        <v>3.84</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
         </is>
       </c>
     </row>
@@ -2689,19 +2689,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>2.2</v>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:51</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.84</v>
+        <v>3.54</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.34</v>
+        <v>2.27</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.67</v>
+        <v>3.35</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.54</v>
+        <v>3.65</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:59</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-novorizontino/l6npLVNE/</t>
         </is>
       </c>
     </row>
@@ -3609,46 +3609,46 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:59</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.13</v>
+        <v>3.09</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,24 +3656,24 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.35</v>
+        <v>4.28</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:59</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-novorizontino/l6npLVNE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.28</v>
+        <v>3.67</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.11</v>
+        <v>4.16</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.55</v>
+        <v>4.11</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.21</v>
+        <v>3.06</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.4</v>
+        <v>3.96</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.16</v>
+        <v>4.55</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.72</v>
+        <v>2.54</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.52</v>
+        <v>3.05</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.42</v>
+        <v>3.47</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.77</v>
+        <v>3.21</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-abc/KCLCCbyC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-novorizontino/OpS3EK6a/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.21</v>
+        <v>1.89</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.05</v>
+        <v>3.52</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.47</v>
+        <v>4.42</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.21</v>
+        <v>5.77</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-novorizontino/OpS3EK6a/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-abc/KCLCCbyC/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:54</t>
+          <t>14/05/2023 22:49</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.08</v>
+        <v>4.39</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
       <c r="J58" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:49</t>
+          <t>14/05/2023 22:54</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>2</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Vitoria</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
       <c r="J60" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>14/05/2023 20:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>19/05/2023 23:52</t>
+          <t>19/05/2023 23:58</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.05</v>
+        <v>3.16</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>14/05/2023 20:42</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.22</v>
+        <v>3.27</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>19/05/2023 23:52</t>
+          <t>19/05/2023 23:58</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.4</v>
+        <v>4.08</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>14/05/2023 20:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.68</v>
+        <v>4.06</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>19/05/2023 23:52</t>
+          <t>19/05/2023 23:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vitoria/buEDQoHi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-londrina/SK5UM3GG/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Londrina</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>14/05/2023 20:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>19/05/2023 23:58</t>
+          <t>19/05/2023 23:52</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.16</v>
+        <v>3.05</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>14/05/2023 20:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.27</v>
+        <v>3.22</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>19/05/2023 23:58</t>
+          <t>19/05/2023 23:52</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>4.08</v>
+        <v>3.4</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>14/05/2023 20:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.06</v>
+        <v>3.68</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>19/05/2023 23:58</t>
+          <t>19/05/2023 23:52</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-londrina/SK5UM3GG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vitoria/buEDQoHi/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.71</v>
+        <v>1.91</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:52</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:50</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:52</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:50</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
+          <t>24/05/2023 23:37</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="N73" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P73" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q73" t="inlineStr">
+      <c r="R73" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U73" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="R73" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T73" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>24/05/2023 23:59</t>
-        </is>
-      </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,63 +7205,63 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.67</v>
+        <v>1.84</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.83</v>
+        <v>1.77</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.98</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.12</v>
+        <v>3.39</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3</v>
+        <v>4.98</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.79</v>
+        <v>5.65</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:58</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,38 +7297,38 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>1.78</v>
+        <v>2.67</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.71</v>
+        <v>2.83</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.41</v>
+        <v>3.12</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -7336,24 +7336,24 @@
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.92</v>
+        <v>3</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.69</v>
+        <v>2.79</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.98</v>
+        <v>3.1</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.65</v>
+        <v>3.7</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:29</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.21</v>
+        <v>3.35</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.39</v>
+        <v>3.78</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.35</v>
+        <v>3.21</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.78</v>
+        <v>3.39</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.97</v>
+        <v>2.53</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/05/2023 21:31</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.24</v>
+        <v>3.08</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/05/2023 21:31</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.56</v>
+        <v>3.2</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/05/2023 22:00</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-londrina/Sh5Swdi8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-esporte-clube-juventude/f9YFUiEf/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
       <c r="J81" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.53</v>
+        <v>1.97</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 21:31</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.08</v>
+        <v>3.24</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 21:31</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.2</v>
+        <v>4.56</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 22:00</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-esporte-clube-juventude/f9YFUiEf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-londrina/Sh5Swdi8/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.2</v>
+        <v>3.61</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>6.37</v>
+        <v>4.03</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:59</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.61</v>
+        <v>5.2</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.03</v>
+        <v>6.37</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:59</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
         <v>1</v>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
       <c r="J105" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:45</t>
+          <t>07/06/2023 23:59</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.54</v>
+        <v>4.14</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:58</t>
+          <t>07/06/2023 23:59</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>5.79</v>
+        <v>7.82</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>5.49</v>
+        <v>9.82</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:42</t>
+          <t>07/06/2023 23:59</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-guarani/rksd2WZP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-avai/YT0Gcjrs/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>07/06/2023 23:59</t>
+          <t>07/06/2023 23:45</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4.14</v>
+        <v>3.54</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>07/06/2023 23:59</t>
+          <t>07/06/2023 23:58</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>7.82</v>
+        <v>5.79</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>9.82</v>
+        <v>5.49</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>07/06/2023 23:59</t>
+          <t>07/06/2023 23:42</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-avai/YT0Gcjrs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-guarani/rksd2WZP/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,14 +10977,14 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-sport-recife/t0iygSdC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-mirassol/f3HA7RB5/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>2.93</v>
+        <v>3.04</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-mirassol/f3HA7RB5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-sport-recife/t0iygSdC/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.17</v>
+        <v>2.84</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.85</v>
+        <v>3.21</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>4.18</v>
+        <v>2.85</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.84</v>
+        <v>2.17</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.21</v>
+        <v>3.85</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.85</v>
+        <v>4.18</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,71 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2.64</v>
+        <v>1.99</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.68</v>
+        <v>1.95</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:27</t>
+          <t>15/07/2023 02:21</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:27</t>
+          <t>15/07/2023 02:20</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>2.87</v>
+        <v>4.35</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.07</v>
+        <v>4.74</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:29</t>
+          <t>15/07/2023 02:21</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-sport-recife/KlNQMIY6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ituano/KnWlRXPh/</t>
         </is>
       </c>
     </row>
@@ -15477,71 +15477,71 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>1.99</v>
+        <v>2.64</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:21</t>
+          <t>15/07/2023 02:27</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:20</t>
+          <t>15/07/2023 02:27</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>4.35</v>
+        <v>2.87</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>4.74</v>
+        <v>3.07</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:21</t>
+          <t>15/07/2023 02:29</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ituano/KnWlRXPh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-sport-recife/KlNQMIY6/</t>
         </is>
       </c>
     </row>
@@ -16397,30 +16397,30 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>4.06</v>
+        <v>3.13</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:57</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>7.52</v>
+        <v>3.31</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>8.199999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:54</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
         </is>
       </c>
     </row>
@@ -16489,30 +16489,30 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -16520,40 +16520,40 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.13</v>
+        <v>4.06</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.12</v>
+        <v>4.02</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:57</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.31</v>
+        <v>7.52</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.67</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:54</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
         </is>
       </c>
     </row>
@@ -16581,30 +16581,30 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
       <c r="J176" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
@@ -16612,31 +16612,31 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.08</v>
+        <v>3.82</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.42</v>
+        <v>4.71</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -16681,63 +16681,63 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>2.58</v>
+        <v>1.69</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.69</v>
+        <v>1.74</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>2.99</v>
+        <v>3.51</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.81</v>
+        <v>3.42</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.95</v>
+        <v>5.8</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.29</v>
+        <v>5.96</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -16773,63 +16773,63 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.69</v>
+        <v>2.58</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.74</v>
+        <v>2.69</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.51</v>
+        <v>2.99</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.42</v>
+        <v>2.81</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:54</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>5.8</v>
+        <v>2.95</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>5.96</v>
+        <v>3.29</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -16857,30 +16857,30 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
@@ -16888,40 +16888,40 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
           <t>20/07/2023 02:29</t>
         </is>
       </c>
-      <c r="R179" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>15/07/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T179" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U179" t="inlineStr">
-        <is>
-          <t>20/07/2023 02:29</t>
-        </is>
-      </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>3.15</v>
+        <v>5.51</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:57</t>
+          <t>05/08/2023 21:55</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>1.78</v>
+        <v>2.77</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>4.54</v>
+        <v>3.02</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>5.51</v>
+        <v>3.15</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:55</t>
+          <t>05/08/2023 21:57</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
         </is>
       </c>
     </row>
@@ -27042,6 +27042,190 @@
       <c r="V289" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-londrina/SOy6AO2Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45194.97916666666</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="G290" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>2</v>
+      </c>
+      <c r="J290" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>18/09/2023 22:43</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>25/09/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>18/09/2023 22:43</t>
+        </is>
+      </c>
+      <c r="P290" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>25/09/2023 23:28</t>
+        </is>
+      </c>
+      <c r="R290" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>18/09/2023 22:43</t>
+        </is>
+      </c>
+      <c r="T290" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>25/09/2023 23:28</t>
+        </is>
+      </c>
+      <c r="V290" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-esporte-clube-juventude/fJXMm1eD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45195.08333333334</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="G291" t="n">
+        <v>2</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>19/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>26/09/2023 01:57</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>19/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P291" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>26/09/2023 01:57</t>
+        </is>
+      </c>
+      <c r="R291" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>19/09/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T291" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>26/09/2023 01:57</t>
+        </is>
+      </c>
+      <c r="V291" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-abc/nDK8B4mK/</t>
         </is>
       </c>
     </row>
